--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hbegf-Cd9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hbegf-Cd9.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.157807</v>
+        <v>34.1829625</v>
       </c>
       <c r="H2">
-        <v>14.315614</v>
+        <v>68.365925</v>
       </c>
       <c r="I2">
-        <v>0.2111248948034031</v>
+        <v>0.6188383653293237</v>
       </c>
       <c r="J2">
-        <v>0.1656546544479295</v>
+        <v>0.5689764244710266</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>69.292158</v>
+        <v>44.88644</v>
       </c>
       <c r="N2">
-        <v>138.584316</v>
+        <v>89.77288</v>
       </c>
       <c r="O2">
-        <v>0.2302847784735656</v>
+        <v>0.08941539400600468</v>
       </c>
       <c r="P2">
-        <v>0.1742377818809482</v>
+        <v>0.06313518933231116</v>
       </c>
       <c r="Q2">
-        <v>495.979893577506</v>
+        <v>1534.3514952785</v>
       </c>
       <c r="R2">
-        <v>1983.919574310024</v>
+        <v>6137.405981114</v>
       </c>
       <c r="S2">
-        <v>0.04861884963005652</v>
+        <v>0.05533367626195334</v>
       </c>
       <c r="T2">
-        <v>0.02886329954926218</v>
+        <v>0.0359224342845997</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.157807</v>
+        <v>34.1829625</v>
       </c>
       <c r="H3">
-        <v>14.315614</v>
+        <v>68.365925</v>
       </c>
       <c r="I3">
-        <v>0.2111248948034031</v>
+        <v>0.6188383653293237</v>
       </c>
       <c r="J3">
-        <v>0.1656546544479295</v>
+        <v>0.5689764244710266</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>105.262465</v>
       </c>
       <c r="O3">
-        <v>0.1166093640500485</v>
+        <v>0.06989553179102848</v>
       </c>
       <c r="P3">
-        <v>0.1323432473911474</v>
+        <v>0.07402865606362163</v>
       </c>
       <c r="Q3">
-        <v>251.1494696047517</v>
+        <v>1199.394297917521</v>
       </c>
       <c r="R3">
-        <v>1506.89681762851</v>
+        <v>7196.365787505126</v>
       </c>
       <c r="S3">
-        <v>0.02461913971815823</v>
+        <v>0.04325403663738384</v>
       </c>
       <c r="T3">
-        <v>0.02192327491509736</v>
+        <v>0.04212056003547482</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.157807</v>
+        <v>34.1829625</v>
       </c>
       <c r="H4">
-        <v>14.315614</v>
+        <v>68.365925</v>
       </c>
       <c r="I4">
-        <v>0.2111248948034031</v>
+        <v>0.6188383653293237</v>
       </c>
       <c r="J4">
-        <v>0.1656546544479295</v>
+        <v>0.5689764244710266</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>64.44625533333334</v>
+        <v>29.15707</v>
       </c>
       <c r="N4">
-        <v>193.338766</v>
+        <v>87.47121</v>
       </c>
       <c r="O4">
-        <v>0.214179960059658</v>
+        <v>0.05808192634815011</v>
       </c>
       <c r="P4">
-        <v>0.2430788613874581</v>
+        <v>0.06151647807752574</v>
       </c>
       <c r="Q4">
-        <v>461.2938575487207</v>
+        <v>996.675030419875</v>
       </c>
       <c r="R4">
-        <v>2767.763145292324</v>
+        <v>5980.05018251925</v>
       </c>
       <c r="S4">
-        <v>0.04521872153659237</v>
+        <v>0.03594332435646739</v>
       </c>
       <c r="T4">
-        <v>0.04026714478673551</v>
+        <v>0.03500142574260089</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.157807</v>
+        <v>34.1829625</v>
       </c>
       <c r="H5">
-        <v>14.315614</v>
+        <v>68.365925</v>
       </c>
       <c r="I5">
-        <v>0.2111248948034031</v>
+        <v>0.6188383653293237</v>
       </c>
       <c r="J5">
-        <v>0.1656546544479295</v>
+        <v>0.5689764244710266</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>38.0262565</v>
+        <v>39.1954995</v>
       </c>
       <c r="N5">
-        <v>76.052513</v>
+        <v>78.39099899999999</v>
       </c>
       <c r="O5">
-        <v>0.1263760331188052</v>
+        <v>0.07807883697291786</v>
       </c>
       <c r="P5">
-        <v>0.09561847656405779</v>
+        <v>0.05513057577983479</v>
       </c>
       <c r="Q5">
-        <v>272.1846049594955</v>
+        <v>1339.818289577269</v>
       </c>
       <c r="R5">
-        <v>1088.738419837982</v>
+        <v>5359.273158309074</v>
       </c>
       <c r="S5">
-        <v>0.02668112669787914</v>
+        <v>0.04831817983913524</v>
       </c>
       <c r="T5">
-        <v>0.01583964569405643</v>
+        <v>0.03136799788623938</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.157807</v>
+        <v>34.1829625</v>
       </c>
       <c r="H6">
-        <v>14.315614</v>
+        <v>68.365925</v>
       </c>
       <c r="I6">
-        <v>0.2111248948034031</v>
+        <v>0.6188383653293237</v>
       </c>
       <c r="J6">
-        <v>0.1656546544479295</v>
+        <v>0.5689764244710266</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>37.47905366666667</v>
+        <v>270.2169853333333</v>
       </c>
       <c r="N6">
-        <v>112.437161</v>
+        <v>810.650956</v>
       </c>
       <c r="O6">
-        <v>0.1245574653776436</v>
+        <v>0.5382819000726007</v>
       </c>
       <c r="P6">
-        <v>0.1413637711617457</v>
+        <v>0.5701120604516535</v>
       </c>
       <c r="Q6">
-        <v>268.2678326886423</v>
+        <v>9236.817076512383</v>
       </c>
       <c r="R6">
-        <v>1609.606996131854</v>
+        <v>55420.9024590743</v>
       </c>
       <c r="S6">
-        <v>0.02629718177483352</v>
+        <v>0.3331094911272905</v>
       </c>
       <c r="T6">
-        <v>0.02341756666325516</v>
+        <v>0.3243803217035916</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.157807</v>
+        <v>34.1829625</v>
       </c>
       <c r="H7">
-        <v>14.315614</v>
+        <v>68.365925</v>
       </c>
       <c r="I7">
-        <v>0.2111248948034031</v>
+        <v>0.6188383653293237</v>
       </c>
       <c r="J7">
-        <v>0.1656546544479295</v>
+        <v>0.5689764244710266</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>56.56647866666668</v>
+        <v>83.455535</v>
       </c>
       <c r="N7">
-        <v>169.699436</v>
+        <v>250.366605</v>
       </c>
       <c r="O7">
-        <v>0.1879923989202791</v>
+        <v>0.1662464108092982</v>
       </c>
       <c r="P7">
-        <v>0.2133578616146428</v>
+        <v>0.1760770402950531</v>
       </c>
       <c r="Q7">
-        <v>404.8919369656174</v>
+        <v>2852.757423322438</v>
       </c>
       <c r="R7">
-        <v>2429.351621793704</v>
+        <v>17116.54453993462</v>
       </c>
       <c r="S7">
-        <v>0.03968987544588332</v>
+        <v>0.1028796571070933</v>
       </c>
       <c r="T7">
-        <v>0.03534372283952281</v>
+        <v>0.1001836848185202</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>11.166373</v>
       </c>
       <c r="I8">
-        <v>0.1097868534762375</v>
+        <v>0.06738425137939692</v>
       </c>
       <c r="J8">
-        <v>0.1292128762868075</v>
+        <v>0.09293230485581538</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>69.292158</v>
+        <v>44.88644</v>
       </c>
       <c r="N8">
-        <v>138.584316</v>
+        <v>89.77288</v>
       </c>
       <c r="O8">
-        <v>0.2302847784735656</v>
+        <v>0.08941539400600468</v>
       </c>
       <c r="P8">
-        <v>0.1742377818809482</v>
+        <v>0.06313518933231116</v>
       </c>
       <c r="Q8">
-        <v>257.914027400978</v>
+        <v>167.0729105607067</v>
       </c>
       <c r="R8">
-        <v>1547.484164405868</v>
+        <v>1002.43746336424</v>
       </c>
       <c r="S8">
-        <v>0.02528224123208515</v>
+        <v>0.00602518938688844</v>
       </c>
       <c r="T8">
-        <v>0.02251376495467071</v>
+        <v>0.005867298662159964</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>11.166373</v>
       </c>
       <c r="I9">
-        <v>0.1097868534762375</v>
+        <v>0.06738425137939692</v>
       </c>
       <c r="J9">
-        <v>0.1292128762868075</v>
+        <v>0.09293230485581538</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>105.262465</v>
       </c>
       <c r="O9">
-        <v>0.1166093640500485</v>
+        <v>0.06989553179102848</v>
       </c>
       <c r="P9">
-        <v>0.1323432473911474</v>
+        <v>0.07402865606362163</v>
       </c>
       <c r="Q9">
         <v>130.5999941210494</v>
@@ -1013,10 +1013,10 @@
         <v>1175.399947089445</v>
       </c>
       <c r="S9">
-        <v>0.01280217516491991</v>
+        <v>0.004709858084503292</v>
       </c>
       <c r="T9">
-        <v>0.01710045165254669</v>
+        <v>0.006879653633370792</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>11.166373</v>
       </c>
       <c r="I10">
-        <v>0.1097868534762375</v>
+        <v>0.06738425137939692</v>
       </c>
       <c r="J10">
-        <v>0.1292128762868075</v>
+        <v>0.09293230485581538</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>64.44625533333334</v>
+        <v>29.15707</v>
       </c>
       <c r="N10">
-        <v>193.338766</v>
+        <v>87.47121</v>
       </c>
       <c r="O10">
-        <v>0.214179960059658</v>
+        <v>0.05808192634815011</v>
       </c>
       <c r="P10">
-        <v>0.2430788613874581</v>
+        <v>0.06151647807752574</v>
       </c>
       <c r="Q10">
-        <v>239.8769751684131</v>
+        <v>108.5262397357033</v>
       </c>
       <c r="R10">
-        <v>2158.892776515718</v>
+        <v>976.73615762133</v>
       </c>
       <c r="S10">
-        <v>0.02351414389261607</v>
+        <v>0.003913807125643365</v>
       </c>
       <c r="T10">
-        <v>0.03140891884439565</v>
+        <v>0.005716868094356706</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>11.166373</v>
       </c>
       <c r="I11">
-        <v>0.1097868534762375</v>
+        <v>0.06738425137939692</v>
       </c>
       <c r="J11">
-        <v>0.1292128762868075</v>
+        <v>0.09293230485581538</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>38.0262565</v>
+        <v>39.1954995</v>
       </c>
       <c r="N11">
-        <v>76.052513</v>
+        <v>78.39099899999999</v>
       </c>
       <c r="O11">
-        <v>0.1263760331188052</v>
+        <v>0.07807883697291786</v>
       </c>
       <c r="P11">
-        <v>0.09561847656405779</v>
+        <v>0.05513057577983479</v>
       </c>
       <c r="Q11">
-        <v>141.5384546242248</v>
+        <v>145.8905224461045</v>
       </c>
       <c r="R11">
-        <v>849.2307277453491</v>
+        <v>875.343134676627</v>
       </c>
       <c r="S11">
-        <v>0.0138744270309224</v>
+        <v>0.005261283977994047</v>
       </c>
       <c r="T11">
-        <v>0.0123551383830046</v>
+        <v>0.005123411475248239</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>11.166373</v>
       </c>
       <c r="I12">
-        <v>0.1097868534762375</v>
+        <v>0.06738425137939692</v>
       </c>
       <c r="J12">
-        <v>0.1292128762868075</v>
+        <v>0.09293230485581538</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>37.47905366666667</v>
+        <v>270.2169853333333</v>
       </c>
       <c r="N12">
-        <v>112.437161</v>
+        <v>810.650956</v>
       </c>
       <c r="O12">
-        <v>0.1245574653776436</v>
+        <v>0.5382819000726007</v>
       </c>
       <c r="P12">
-        <v>0.1413637711617457</v>
+        <v>0.5701120604516535</v>
       </c>
       <c r="Q12">
-        <v>139.5016976430059</v>
+        <v>1005.781216389176</v>
       </c>
       <c r="R12">
-        <v>1255.515278787053</v>
+        <v>9052.030947502588</v>
       </c>
       <c r="S12">
-        <v>0.01367477220078688</v>
+        <v>0.03627172286747154</v>
       </c>
       <c r="T12">
-        <v>0.01826601947455922</v>
+        <v>0.05298182780387011</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>11.166373</v>
       </c>
       <c r="I13">
-        <v>0.1097868534762375</v>
+        <v>0.06738425137939692</v>
       </c>
       <c r="J13">
-        <v>0.1292128762868075</v>
+        <v>0.09293230485581538</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>56.56647866666668</v>
+        <v>83.455535</v>
       </c>
       <c r="N13">
-        <v>169.699436</v>
+        <v>250.366605</v>
       </c>
       <c r="O13">
-        <v>0.1879923989202791</v>
+        <v>0.1662464108092982</v>
       </c>
       <c r="P13">
-        <v>0.2133578616146428</v>
+        <v>0.1760770402950531</v>
       </c>
       <c r="Q13">
-        <v>210.5474666961809</v>
+        <v>310.6318775748517</v>
       </c>
       <c r="R13">
-        <v>1894.927200265628</v>
+        <v>2795.686898173665</v>
       </c>
       <c r="S13">
-        <v>0.02063909395490706</v>
+        <v>0.01120238993689624</v>
       </c>
       <c r="T13">
-        <v>0.02756858297763064</v>
+        <v>0.01636324518680956</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.570476333333333</v>
+        <v>1.560491</v>
       </c>
       <c r="H14">
-        <v>4.711429</v>
+        <v>4.681473</v>
       </c>
       <c r="I14">
-        <v>0.04632237927988758</v>
+        <v>0.02825067311094296</v>
       </c>
       <c r="J14">
-        <v>0.05451880324175783</v>
+        <v>0.03896162845449177</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>69.292158</v>
+        <v>44.88644</v>
       </c>
       <c r="N14">
-        <v>138.584316</v>
+        <v>89.77288</v>
       </c>
       <c r="O14">
-        <v>0.2302847784735656</v>
+        <v>0.08941539400600468</v>
       </c>
       <c r="P14">
-        <v>0.1742377818809482</v>
+        <v>0.06313518933231116</v>
       </c>
       <c r="Q14">
-        <v>108.821694224594</v>
+        <v>70.04488564204</v>
       </c>
       <c r="R14">
-        <v>652.930165347564</v>
+        <v>420.26931385224</v>
       </c>
       <c r="S14">
-        <v>0.01066733885083739</v>
+        <v>0.002526045067149807</v>
       </c>
       <c r="T14">
-        <v>0.009499235347647733</v>
+        <v>0.0024598497891695</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.570476333333333</v>
+        <v>1.560491</v>
       </c>
       <c r="H15">
-        <v>4.711429</v>
+        <v>4.681473</v>
       </c>
       <c r="I15">
-        <v>0.04632237927988758</v>
+        <v>0.02825067311094296</v>
       </c>
       <c r="J15">
-        <v>0.05451880324175783</v>
+        <v>0.03896162845449177</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>105.262465</v>
       </c>
       <c r="O15">
-        <v>0.1166093640500485</v>
+        <v>0.06989553179102848</v>
       </c>
       <c r="P15">
-        <v>0.1323432473911474</v>
+        <v>0.07402865606362163</v>
       </c>
       <c r="Q15">
-        <v>55.10407002360945</v>
+        <v>54.75370975677167</v>
       </c>
       <c r="R15">
-        <v>495.9366302124849</v>
+        <v>492.7833878109451</v>
       </c>
       <c r="S15">
-        <v>0.005401623189112836</v>
+        <v>0.001974595820543867</v>
       </c>
       <c r="T15">
-        <v>0.007215195464893245</v>
+        <v>0.002884276992536185</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.570476333333333</v>
+        <v>1.560491</v>
       </c>
       <c r="H16">
-        <v>4.711429</v>
+        <v>4.681473</v>
       </c>
       <c r="I16">
-        <v>0.04632237927988758</v>
+        <v>0.02825067311094296</v>
       </c>
       <c r="J16">
-        <v>0.05451880324175783</v>
+        <v>0.03896162845449177</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>64.44625533333334</v>
+        <v>29.15707</v>
       </c>
       <c r="N16">
-        <v>193.338766</v>
+        <v>87.47121</v>
       </c>
       <c r="O16">
-        <v>0.214179960059658</v>
+        <v>0.05808192634815011</v>
       </c>
       <c r="P16">
-        <v>0.2430788613874581</v>
+        <v>0.06151647807752574</v>
       </c>
       <c r="Q16">
-        <v>101.2113187729571</v>
+        <v>45.49934532137</v>
       </c>
       <c r="R16">
-        <v>910.9018689566141</v>
+        <v>409.49410789233</v>
       </c>
       <c r="S16">
-        <v>0.00992132534403465</v>
+        <v>0.001640853514915454</v>
       </c>
       <c r="T16">
-        <v>0.01325236861621335</v>
+        <v>0.002396782162685446</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.570476333333333</v>
+        <v>1.560491</v>
       </c>
       <c r="H17">
-        <v>4.711429</v>
+        <v>4.681473</v>
       </c>
       <c r="I17">
-        <v>0.04632237927988758</v>
+        <v>0.02825067311094296</v>
       </c>
       <c r="J17">
-        <v>0.05451880324175783</v>
+        <v>0.03896162845449177</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>38.0262565</v>
+        <v>39.1954995</v>
       </c>
       <c r="N17">
-        <v>76.052513</v>
+        <v>78.39099899999999</v>
       </c>
       <c r="O17">
-        <v>0.1263760331188052</v>
+        <v>0.07807883697291786</v>
       </c>
       <c r="P17">
-        <v>0.09561847656405779</v>
+        <v>0.05513057577983479</v>
       </c>
       <c r="Q17">
-        <v>59.71933587851284</v>
+        <v>61.1642242102545</v>
       </c>
       <c r="R17">
-        <v>358.316015271077</v>
+        <v>366.985345261527</v>
       </c>
       <c r="S17">
-        <v>0.005854038538016929</v>
+        <v>0.00220577970020451</v>
       </c>
       <c r="T17">
-        <v>0.005213004910072499</v>
+        <v>0.002147977010016126</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.570476333333333</v>
+        <v>1.560491</v>
       </c>
       <c r="H18">
-        <v>4.711429</v>
+        <v>4.681473</v>
       </c>
       <c r="I18">
-        <v>0.04632237927988758</v>
+        <v>0.02825067311094296</v>
       </c>
       <c r="J18">
-        <v>0.05451880324175783</v>
+        <v>0.03896162845449177</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>37.47905366666667</v>
+        <v>270.2169853333333</v>
       </c>
       <c r="N18">
-        <v>112.437161</v>
+        <v>810.650956</v>
       </c>
       <c r="O18">
-        <v>0.1245574653776436</v>
+        <v>0.5382819000726007</v>
       </c>
       <c r="P18">
-        <v>0.1413637711617457</v>
+        <v>0.5701120604516535</v>
       </c>
       <c r="Q18">
-        <v>58.85996677922989</v>
+        <v>421.6711736597986</v>
       </c>
       <c r="R18">
-        <v>529.739701013069</v>
+        <v>3795.040562938188</v>
       </c>
       <c r="S18">
-        <v>0.00576979815336467</v>
+        <v>0.01520682600048831</v>
       </c>
       <c r="T18">
-        <v>0.007706983625480095</v>
+        <v>0.02221249427674208</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.570476333333333</v>
+        <v>1.560491</v>
       </c>
       <c r="H19">
-        <v>4.711429</v>
+        <v>4.681473</v>
       </c>
       <c r="I19">
-        <v>0.04632237927988758</v>
+        <v>0.02825067311094296</v>
       </c>
       <c r="J19">
-        <v>0.05451880324175783</v>
+        <v>0.03896162845449177</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>56.56647866666668</v>
+        <v>83.455535</v>
       </c>
       <c r="N19">
-        <v>169.699436</v>
+        <v>250.366605</v>
       </c>
       <c r="O19">
-        <v>0.1879923989202791</v>
+        <v>0.1662464108092982</v>
       </c>
       <c r="P19">
-        <v>0.2133578616146428</v>
+        <v>0.1760770402950531</v>
       </c>
       <c r="Q19">
-        <v>88.83631600600491</v>
+        <v>130.231611267685</v>
       </c>
       <c r="R19">
-        <v>799.5268440540441</v>
+        <v>1172.084501409165</v>
       </c>
       <c r="S19">
-        <v>0.008708255204521096</v>
+        <v>0.004696573007641017</v>
       </c>
       <c r="T19">
-        <v>0.01163201527745091</v>
+        <v>0.006860248223342433</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.133334000000001</v>
+        <v>11.3729585</v>
       </c>
       <c r="H20">
-        <v>16.266668</v>
+        <v>22.745917</v>
       </c>
       <c r="I20">
-        <v>0.2398987965379539</v>
+        <v>0.2058927176688748</v>
       </c>
       <c r="J20">
-        <v>0.188231483927912</v>
+        <v>0.1893032314851988</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>69.292158</v>
+        <v>44.88644</v>
       </c>
       <c r="N20">
-        <v>138.584316</v>
+        <v>89.77288</v>
       </c>
       <c r="O20">
-        <v>0.2302847784735656</v>
+        <v>0.08941539400600468</v>
       </c>
       <c r="P20">
-        <v>0.1742377818809482</v>
+        <v>0.06313518933231116</v>
       </c>
       <c r="Q20">
-        <v>563.5762645947721</v>
+        <v>510.49161933274</v>
       </c>
       <c r="R20">
-        <v>2254.305058379088</v>
+        <v>2041.96647733096</v>
       </c>
       <c r="S20">
-        <v>0.05524504121681768</v>
+        <v>0.01840997847332952</v>
       </c>
       <c r="T20">
-        <v>0.03279703623975874</v>
+        <v>0.01195169536103635</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.133334000000001</v>
+        <v>11.3729585</v>
       </c>
       <c r="H21">
-        <v>16.266668</v>
+        <v>22.745917</v>
       </c>
       <c r="I21">
-        <v>0.2398987965379539</v>
+        <v>0.2058927176688748</v>
       </c>
       <c r="J21">
-        <v>0.188231483927912</v>
+        <v>0.1893032314851988</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>105.262465</v>
       </c>
       <c r="O21">
-        <v>0.1166093640500485</v>
+        <v>0.06989553179102848</v>
       </c>
       <c r="P21">
-        <v>0.1323432473911474</v>
+        <v>0.07402865606362163</v>
       </c>
       <c r="Q21">
-        <v>285.3782618361034</v>
+        <v>399.0485486842342</v>
       </c>
       <c r="R21">
-        <v>1712.26957101662</v>
+        <v>2394.291292105405</v>
       </c>
       <c r="S21">
-        <v>0.02797444610066279</v>
+        <v>0.01439098099336609</v>
       </c>
       <c r="T21">
-        <v>0.02491116584427444</v>
+        <v>0.01401386381534993</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.133334000000001</v>
+        <v>11.3729585</v>
       </c>
       <c r="H22">
-        <v>16.266668</v>
+        <v>22.745917</v>
       </c>
       <c r="I22">
-        <v>0.2398987965379539</v>
+        <v>0.2058927176688748</v>
       </c>
       <c r="J22">
-        <v>0.188231483927912</v>
+        <v>0.1893032314851988</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>64.44625533333334</v>
+        <v>29.15707</v>
       </c>
       <c r="N22">
-        <v>193.338766</v>
+        <v>87.47121</v>
       </c>
       <c r="O22">
-        <v>0.214179960059658</v>
+        <v>0.05808192634815011</v>
       </c>
       <c r="P22">
-        <v>0.2430788613874581</v>
+        <v>0.06151647807752574</v>
       </c>
       <c r="Q22">
-        <v>524.1629196752815</v>
+        <v>331.602147091595</v>
       </c>
       <c r="R22">
-        <v>3144.977518051689</v>
+        <v>1989.61288254957</v>
       </c>
       <c r="S22">
-        <v>0.05138151466085898</v>
+        <v>0.01195864566326405</v>
       </c>
       <c r="T22">
-        <v>0.04575509479046847</v>
+        <v>0.01164526808966401</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.133334000000001</v>
+        <v>11.3729585</v>
       </c>
       <c r="H23">
-        <v>16.266668</v>
+        <v>22.745917</v>
       </c>
       <c r="I23">
-        <v>0.2398987965379539</v>
+        <v>0.2058927176688748</v>
       </c>
       <c r="J23">
-        <v>0.188231483927912</v>
+        <v>0.1893032314851988</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>38.0262565</v>
+        <v>39.1954995</v>
       </c>
       <c r="N23">
-        <v>76.052513</v>
+        <v>78.39099899999999</v>
       </c>
       <c r="O23">
-        <v>0.1263760331188052</v>
+        <v>0.07807883697291786</v>
       </c>
       <c r="P23">
-        <v>0.09561847656405779</v>
+        <v>0.05513057577983479</v>
       </c>
       <c r="Q23">
-        <v>309.2802448841711</v>
+        <v>445.7687892002707</v>
       </c>
       <c r="R23">
-        <v>1237.120979536684</v>
+        <v>1783.075156801083</v>
       </c>
       <c r="S23">
-        <v>0.03031745825644197</v>
+        <v>0.01607586393677908</v>
       </c>
       <c r="T23">
-        <v>0.01799840773457887</v>
+        <v>0.01043639614876236</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.133334000000001</v>
+        <v>11.3729585</v>
       </c>
       <c r="H24">
-        <v>16.266668</v>
+        <v>22.745917</v>
       </c>
       <c r="I24">
-        <v>0.2398987965379539</v>
+        <v>0.2058927176688748</v>
       </c>
       <c r="J24">
-        <v>0.188231483927912</v>
+        <v>0.1893032314851988</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>37.47905366666667</v>
+        <v>270.2169853333333</v>
       </c>
       <c r="N24">
-        <v>112.437161</v>
+        <v>810.650956</v>
       </c>
       <c r="O24">
-        <v>0.1245574653776436</v>
+        <v>0.5382819000726007</v>
       </c>
       <c r="P24">
-        <v>0.1413637711617457</v>
+        <v>0.5701120604516535</v>
       </c>
       <c r="Q24">
-        <v>304.8296614749247</v>
+        <v>3073.166560191108</v>
       </c>
       <c r="R24">
-        <v>1828.977968849548</v>
+        <v>18438.99936114665</v>
       </c>
       <c r="S24">
-        <v>0.02988118604391455</v>
+        <v>0.1108283232779135</v>
       </c>
       <c r="T24">
-        <v>0.02660911241942117</v>
+        <v>0.107924055352183</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.133334000000001</v>
+        <v>11.3729585</v>
       </c>
       <c r="H25">
-        <v>16.266668</v>
+        <v>22.745917</v>
       </c>
       <c r="I25">
-        <v>0.2398987965379539</v>
+        <v>0.2058927176688748</v>
       </c>
       <c r="J25">
-        <v>0.188231483927912</v>
+        <v>0.1893032314851988</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>56.56647866666668</v>
+        <v>83.455535</v>
       </c>
       <c r="N25">
-        <v>169.699436</v>
+        <v>250.366605</v>
       </c>
       <c r="O25">
-        <v>0.1879923989202791</v>
+        <v>0.1662464108092982</v>
       </c>
       <c r="P25">
-        <v>0.2133578616146428</v>
+        <v>0.1760770402950531</v>
       </c>
       <c r="Q25">
-        <v>460.0740641998748</v>
+        <v>949.1363361502974</v>
       </c>
       <c r="R25">
-        <v>2760.444385199249</v>
+        <v>5694.818016901784</v>
       </c>
       <c r="S25">
-        <v>0.0450991502592579</v>
+        <v>0.03422892532422261</v>
       </c>
       <c r="T25">
-        <v>0.04016066689941031</v>
+        <v>0.03333195271820311</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>11.26174566666667</v>
+        <v>2.577819333333334</v>
       </c>
       <c r="H26">
-        <v>33.785237</v>
+        <v>7.733458000000001</v>
       </c>
       <c r="I26">
-        <v>0.3321736488812399</v>
+        <v>0.04666808800888241</v>
       </c>
       <c r="J26">
-        <v>0.3909494738176372</v>
+        <v>0.0643618188686375</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>69.292158</v>
+        <v>44.88644</v>
       </c>
       <c r="N26">
-        <v>138.584316</v>
+        <v>89.77288</v>
       </c>
       <c r="O26">
-        <v>0.2302847784735656</v>
+        <v>0.08941539400600468</v>
       </c>
       <c r="P26">
-        <v>0.1742377818809482</v>
+        <v>0.06313518933231116</v>
       </c>
       <c r="Q26">
-        <v>780.3506600904821</v>
+        <v>115.7091328365067</v>
       </c>
       <c r="R26">
-        <v>4682.103960542892</v>
+        <v>694.2547970190401</v>
       </c>
       <c r="S26">
-        <v>0.07649453514737228</v>
+        <v>0.004172845476821122</v>
       </c>
       <c r="T26">
-        <v>0.06811816914550894</v>
+        <v>0.004063495620043345</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>11.26174566666667</v>
+        <v>2.577819333333334</v>
       </c>
       <c r="H27">
-        <v>33.785237</v>
+        <v>7.733458000000001</v>
       </c>
       <c r="I27">
-        <v>0.3321736488812399</v>
+        <v>0.04666808800888241</v>
       </c>
       <c r="J27">
-        <v>0.3909494738176372</v>
+        <v>0.0643618188686375</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>105.262465</v>
       </c>
       <c r="O27">
-        <v>0.1166093640500485</v>
+        <v>0.06989553179102848</v>
       </c>
       <c r="P27">
-        <v>0.1323432473911474</v>
+        <v>0.07402865606362163</v>
       </c>
       <c r="Q27">
-        <v>395.1463696921339</v>
+        <v>90.44920578377446</v>
       </c>
       <c r="R27">
-        <v>3556.317327229205</v>
+        <v>814.0428520539701</v>
       </c>
       <c r="S27">
-        <v>0.03873455795022551</v>
+        <v>0.003261890829051355</v>
       </c>
       <c r="T27">
-        <v>0.05173952293088646</v>
+        <v>0.004764618952655479</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>11.26174566666667</v>
+        <v>2.577819333333334</v>
       </c>
       <c r="H28">
-        <v>33.785237</v>
+        <v>7.733458000000001</v>
       </c>
       <c r="I28">
-        <v>0.3321736488812399</v>
+        <v>0.04666808800888241</v>
       </c>
       <c r="J28">
-        <v>0.3909494738176372</v>
+        <v>0.0643618188686375</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>64.44625533333334</v>
+        <v>29.15707</v>
       </c>
       <c r="N28">
-        <v>193.338766</v>
+        <v>87.47121</v>
       </c>
       <c r="O28">
-        <v>0.214179960059658</v>
+        <v>0.05808192634815011</v>
       </c>
       <c r="P28">
-        <v>0.2430788613874581</v>
+        <v>0.06151647807752574</v>
       </c>
       <c r="Q28">
-        <v>725.7773367330603</v>
+        <v>75.16165874935335</v>
       </c>
       <c r="R28">
-        <v>6531.996030597543</v>
+        <v>676.4549287441801</v>
       </c>
       <c r="S28">
-        <v>0.07114493885025483</v>
+        <v>0.002710572450540895</v>
       </c>
       <c r="T28">
-        <v>0.09503155295561712</v>
+        <v>0.003959312419462221</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>11.26174566666667</v>
+        <v>2.577819333333334</v>
       </c>
       <c r="H29">
-        <v>33.785237</v>
+        <v>7.733458000000001</v>
       </c>
       <c r="I29">
-        <v>0.3321736488812399</v>
+        <v>0.04666808800888241</v>
       </c>
       <c r="J29">
-        <v>0.3909494738176372</v>
+        <v>0.0643618188686375</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>38.0262565</v>
+        <v>39.1954995</v>
       </c>
       <c r="N29">
-        <v>76.052513</v>
+        <v>78.39099899999999</v>
       </c>
       <c r="O29">
-        <v>0.1263760331188052</v>
+        <v>0.07807883697291786</v>
       </c>
       <c r="P29">
-        <v>0.09561847656405779</v>
+        <v>0.05513057577983479</v>
       </c>
       <c r="Q29">
-        <v>428.2420293584302</v>
+        <v>101.038916390757</v>
       </c>
       <c r="R29">
-        <v>2569.452176150581</v>
+        <v>606.233498344542</v>
       </c>
       <c r="S29">
-        <v>0.04197878805220995</v>
+        <v>0.003643790035483312</v>
       </c>
       <c r="T29">
-        <v>0.03738199309996247</v>
+        <v>0.00354830413246542</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>11.26174566666667</v>
+        <v>2.577819333333334</v>
       </c>
       <c r="H30">
-        <v>33.785237</v>
+        <v>7.733458000000001</v>
       </c>
       <c r="I30">
-        <v>0.3321736488812399</v>
+        <v>0.04666808800888241</v>
       </c>
       <c r="J30">
-        <v>0.3909494738176372</v>
+        <v>0.0643618188686375</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>37.47905366666667</v>
+        <v>270.2169853333333</v>
       </c>
       <c r="N30">
-        <v>112.437161</v>
+        <v>810.650956</v>
       </c>
       <c r="O30">
-        <v>0.1245574653776436</v>
+        <v>0.5382819000726007</v>
       </c>
       <c r="P30">
-        <v>0.1413637711617457</v>
+        <v>0.5701120604516535</v>
       </c>
       <c r="Q30">
-        <v>422.0795702213508</v>
+        <v>696.5705689873164</v>
       </c>
       <c r="R30">
-        <v>3798.716131992157</v>
+        <v>6269.135120885848</v>
       </c>
       <c r="S30">
-        <v>0.04137470776989057</v>
+        <v>0.02512058708617657</v>
       </c>
       <c r="T30">
-        <v>0.05526609195256137</v>
+        <v>0.03669344916961503</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>11.26174566666667</v>
+        <v>2.577819333333334</v>
       </c>
       <c r="H31">
-        <v>33.785237</v>
+        <v>7.733458000000001</v>
       </c>
       <c r="I31">
-        <v>0.3321736488812399</v>
+        <v>0.04666808800888241</v>
       </c>
       <c r="J31">
-        <v>0.3909494738176372</v>
+        <v>0.0643618188686375</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>56.56647866666668</v>
+        <v>83.455535</v>
       </c>
       <c r="N31">
-        <v>169.699436</v>
+        <v>250.366605</v>
       </c>
       <c r="O31">
-        <v>0.1879923989202791</v>
+        <v>0.1662464108092982</v>
       </c>
       <c r="P31">
-        <v>0.2133578616146428</v>
+        <v>0.1760770402950531</v>
       </c>
       <c r="Q31">
-        <v>637.0372960029259</v>
+        <v>215.1332915966767</v>
       </c>
       <c r="R31">
-        <v>5733.335664026333</v>
+        <v>1936.19962437009</v>
       </c>
       <c r="S31">
-        <v>0.06244612111128678</v>
+        <v>0.007758402130809146</v>
       </c>
       <c r="T31">
-        <v>0.08341214373310088</v>
+        <v>0.01133263857439599</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.057700666666667</v>
+        <v>1.820947666666666</v>
       </c>
       <c r="H32">
-        <v>6.173102</v>
+        <v>5.462842999999999</v>
       </c>
       <c r="I32">
-        <v>0.06069342702127795</v>
+        <v>0.0329659045025792</v>
       </c>
       <c r="J32">
-        <v>0.07143270827795596</v>
+        <v>0.04546459186482997</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>69.292158</v>
+        <v>44.88644</v>
       </c>
       <c r="N32">
-        <v>138.584316</v>
+        <v>89.77288</v>
       </c>
       <c r="O32">
-        <v>0.2302847784735656</v>
+        <v>0.08941539400600468</v>
       </c>
       <c r="P32">
-        <v>0.1742377818809482</v>
+        <v>0.06313518933231116</v>
       </c>
       <c r="Q32">
-        <v>142.582519711372</v>
+        <v>81.73585818297332</v>
       </c>
       <c r="R32">
-        <v>855.495118268232</v>
+        <v>490.41514909784</v>
       </c>
       <c r="S32">
-        <v>0.01397677239639651</v>
+        <v>0.002947659339862442</v>
       </c>
       <c r="T32">
-        <v>0.01244627664409989</v>
+        <v>0.002870415615302294</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.057700666666667</v>
+        <v>1.820947666666666</v>
       </c>
       <c r="H33">
-        <v>6.173102</v>
+        <v>5.462842999999999</v>
       </c>
       <c r="I33">
-        <v>0.06069342702127795</v>
+        <v>0.0329659045025792</v>
       </c>
       <c r="J33">
-        <v>0.07143270827795596</v>
+        <v>0.04546459186482997</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>105.262465</v>
       </c>
       <c r="O33">
-        <v>0.1166093640500485</v>
+        <v>0.06989553179102848</v>
       </c>
       <c r="P33">
-        <v>0.1323432473911474</v>
+        <v>0.07402865606362163</v>
       </c>
       <c r="Q33">
-        <v>72.19954813515889</v>
+        <v>63.89248000977721</v>
       </c>
       <c r="R33">
-        <v>649.7959332164299</v>
+        <v>575.032320087995</v>
       </c>
       <c r="S33">
-        <v>0.007077421926969254</v>
+        <v>0.002304169426180033</v>
       </c>
       <c r="T33">
-        <v>0.009453636583449188</v>
+        <v>0.003365682634234428</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.057700666666667</v>
+        <v>1.820947666666666</v>
       </c>
       <c r="H34">
-        <v>6.173102</v>
+        <v>5.462842999999999</v>
       </c>
       <c r="I34">
-        <v>0.06069342702127795</v>
+        <v>0.0329659045025792</v>
       </c>
       <c r="J34">
-        <v>0.07143270827795596</v>
+        <v>0.04546459186482997</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>64.44625533333334</v>
+        <v>29.15707</v>
       </c>
       <c r="N34">
-        <v>193.338766</v>
+        <v>87.47121</v>
       </c>
       <c r="O34">
-        <v>0.214179960059658</v>
+        <v>0.05808192634815011</v>
       </c>
       <c r="P34">
-        <v>0.2430788613874581</v>
+        <v>0.06151647807752574</v>
       </c>
       <c r="Q34">
-        <v>132.6111025635703</v>
+        <v>53.09349858333666</v>
       </c>
       <c r="R34">
-        <v>1193.499923072132</v>
+        <v>477.84148725003</v>
       </c>
       <c r="S34">
-        <v>0.01299931577530108</v>
+        <v>0.001914723237318955</v>
       </c>
       <c r="T34">
-        <v>0.01736378139402799</v>
+        <v>0.002796821568756468</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.057700666666667</v>
+        <v>1.820947666666666</v>
       </c>
       <c r="H35">
-        <v>6.173102</v>
+        <v>5.462842999999999</v>
       </c>
       <c r="I35">
-        <v>0.06069342702127795</v>
+        <v>0.0329659045025792</v>
       </c>
       <c r="J35">
-        <v>0.07143270827795596</v>
+        <v>0.04546459186482997</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>38.0262565</v>
+        <v>39.1954995</v>
       </c>
       <c r="N35">
-        <v>76.052513</v>
+        <v>78.39099899999999</v>
       </c>
       <c r="O35">
-        <v>0.1263760331188052</v>
+        <v>0.07807883697291786</v>
       </c>
       <c r="P35">
-        <v>0.09561847656405779</v>
+        <v>0.05513057577983479</v>
       </c>
       <c r="Q35">
-        <v>78.24665335088768</v>
+        <v>71.37295335835948</v>
       </c>
       <c r="R35">
-        <v>469.479920105326</v>
+        <v>428.2377201501569</v>
       </c>
       <c r="S35">
-        <v>0.00767019454333481</v>
+        <v>0.00257393948332166</v>
       </c>
       <c r="T35">
-        <v>0.006830286742382909</v>
+        <v>0.002506489127103269</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.057700666666667</v>
+        <v>1.820947666666666</v>
       </c>
       <c r="H36">
-        <v>6.173102</v>
+        <v>5.462842999999999</v>
       </c>
       <c r="I36">
-        <v>0.06069342702127795</v>
+        <v>0.0329659045025792</v>
       </c>
       <c r="J36">
-        <v>0.07143270827795596</v>
+        <v>0.04546459186482997</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>37.47905366666667</v>
+        <v>270.2169853333333</v>
       </c>
       <c r="N36">
-        <v>112.437161</v>
+        <v>810.650956</v>
       </c>
       <c r="O36">
-        <v>0.1245574653776436</v>
+        <v>0.5382819000726007</v>
       </c>
       <c r="P36">
-        <v>0.1413637711617457</v>
+        <v>0.5701120604516535</v>
       </c>
       <c r="Q36">
-        <v>77.12067371593578</v>
+        <v>492.0509889364341</v>
       </c>
       <c r="R36">
-        <v>694.0860634434219</v>
+        <v>4428.458900427907</v>
       </c>
       <c r="S36">
-        <v>0.007559819434853366</v>
+        <v>0.01774494971326023</v>
       </c>
       <c r="T36">
-        <v>0.01009799702646871</v>
+        <v>0.0259199121456517</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.057700666666667</v>
+        <v>1.820947666666666</v>
       </c>
       <c r="H37">
-        <v>6.173102</v>
+        <v>5.462842999999999</v>
       </c>
       <c r="I37">
-        <v>0.06069342702127795</v>
+        <v>0.0329659045025792</v>
       </c>
       <c r="J37">
-        <v>0.07143270827795596</v>
+        <v>0.04546459186482997</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>56.56647866666668</v>
+        <v>83.455535</v>
       </c>
       <c r="N37">
-        <v>169.699436</v>
+        <v>250.366605</v>
       </c>
       <c r="O37">
-        <v>0.1879923989202791</v>
+        <v>0.1662464108092982</v>
       </c>
       <c r="P37">
-        <v>0.2133578616146428</v>
+        <v>0.1760770402950531</v>
       </c>
       <c r="Q37">
-        <v>116.3968808633858</v>
+        <v>151.9681617286683</v>
       </c>
       <c r="R37">
-        <v>1047.571927770472</v>
+        <v>1367.713455558015</v>
       </c>
       <c r="S37">
-        <v>0.01140990294442293</v>
+        <v>0.005480463302635873</v>
       </c>
       <c r="T37">
-        <v>0.01524072988752728</v>
+        <v>0.008005270773781808</v>
       </c>
     </row>
   </sheetData>
